--- a/Temp_Data.xlsx
+++ b/Temp_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8598BD-4EE7-4F00-BAC1-4BFC17CBF3DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842C7B0-CA54-48EB-BC5F-10DECEDCA8C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,10 +13,15 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$D$265</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,11 +48,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Always My #1
-</t>
   </si>
   <si>
     <t>אייל גולן</t>
@@ -77,11 +77,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/92OMfTDUjwY?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-goda boba
-</t>
   </si>
   <si>
     <t>מה שיש לי על הלב רציתי לספר
@@ -110,11 +105,6 @@
   </si>
   <si>
     <t>Unavailable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אהבה אחרת
-</t>
   </si>
   <si>
     <t xml:space="preserve">אודם שקיעה מעל המים
@@ -145,11 +135,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/KLHXaNxPMtQ?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אהבה ראשונה
-</t>
   </si>
   <si>
     <t>אמרת לי שאת עוד אוהבת
@@ -180,11 +165,6 @@
 תמיד את תהיי אהבה ראשונה</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אהבת חיי
-</t>
-  </si>
-  <si>
     <t>הכל נפתח כשחזרתי לראות אהבה בעינייך
 שמחה עולמית שלי, יש אושר גדול על פניך
 הכל נראה פשוט כי חזרתי להיות לידך
@@ -206,11 +186,6 @@
 את הדבר הכי טוב בעולם...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אהבת ילדות
-</t>
-  </si>
-  <si>
     <t>רק אותך, רק אותך תמיד רציתי
 ללטף את תלתלייך ולחיות
 רק אותך, אהבת חיי הביטי
@@ -228,11 +203,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/vG07i9tBP-I?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אהובה שלי
-</t>
   </si>
   <si>
     <t>בכל מקום בכל חלום חיפשתי וחלמתי אהבה
@@ -254,11 +224,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/uD52ojMUejA?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אהיה בכל מקום
-</t>
   </si>
   <si>
     <t>אהבה שמתפרקת
@@ -299,11 +264,6 @@
 אין איש בעולם.....</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אוהב אותך לנצח
-</t>
-  </si>
-  <si>
     <t>אותך ראיתי מהלכת
 ידעתי את אהבתי
 נשמתי כמו אש בוערת
@@ -330,11 +290,6 @@
     <t>//www.youtube.com/embed/gz3_IZc5NSk?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אושר אמיתי
-</t>
-  </si>
-  <si>
     <t>את שלי, את נולדת בשבילי
 רק כשאת נמצאת איתי
 אושר אמיתי, בא אל ליבי
@@ -359,11 +314,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/sx_rWTE0JcY?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אותך אשא
-</t>
   </si>
   <si>
     <t xml:space="preserve">את כל הדלתות את סגרת היטב
@@ -404,11 +354,6 @@
     <t>//www.youtube.com/embed/ShKqwdIgjlM?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אח יקר
-</t>
-  </si>
-  <si>
     <t>אח יקר מה שלומך אני מקווה שטוב לך 
 ושמצאת מנוחה, שנתיים לא דיברנו
 לא החלפנו אף מילה שנתיים לא דיברנו בגללה.
@@ -440,11 +385,6 @@
 תדע אחרי הכל, נשאר לך חבר</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אייל גולן -עוד שבת של כדורגל
-</t>
-  </si>
-  <si>
     <t>עוד שבת של כדורגל 
 נצחון הפסד ואכזבות 
 עוד שבת של כדורגל 
@@ -466,11 +406,6 @@
 עוד שבת של כדורגל...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אייל גולן קורא לך
-</t>
-  </si>
-  <si>
     <t>כל העיר לוחשת מרכלים בכל פינה
 הנה היא חוזרת המלכה של השכונה
 היא פשוט כוכבת יש לה כישרון
@@ -487,11 +422,6 @@
 למה נעלמה לה שואלים כולם
 איפה יש כמוה אין דומה לה בעולם
 היא יפה אמיתית</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-איך
-</t>
   </si>
   <si>
     <t xml:space="preserve">איך נסחפנו והמשכנו
@@ -511,11 +441,6 @@
 השמחה שבתוכי שוב משתוקקת לבואך
 לעינייך שפתותייך לנינוח של עורך
 המכשולים שעל הדרך...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-איך הוא אוהב
 </t>
   </si>
   <si>
@@ -544,11 +469,6 @@
     <t>//www.youtube.com/embed/s3P6pjkpN_4?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אין לי בלעדייך
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">נשמתי, אין לי בלעדייך
 את יומי לילי וכל חיי
 מה ביקשתי רק את שתי ידייך 
@@ -568,11 +488,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-איפה את
-</t>
-  </si>
-  <si>
     <t>חשבתי שאצלך הכל היה מושלם, 
 מסרת לי את ליבך, הכל היה מוכן, 
 שוב אותו מסך נעלם, הפחד מתגבר 
@@ -590,11 +505,6 @@
 איפה את...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אישה וגם ילדה
-</t>
-  </si>
-  <si>
     <t>השנים מתחלפות, בעיני את נשארת בת עשרים
 כמו הירח, יש בך לנצח נעורים
 את מנצחת את הזמן.
@@ -609,11 +519,6 @@
 אפילו הטבע אותך לא יצליח לשנות
 את מנצחת את הזמן.
 את האישה שלי...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אישה שלי
-</t>
   </si>
   <si>
     <t>איך את יפה כשאת קמה בבוקר,
@@ -641,11 +546,6 @@
 אישה שלי...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אל תגידי לי לא
-</t>
-  </si>
-  <si>
     <t>בואי נאהב כמו פעם, כמו ברק ברעם, קצת אבד הטעם, 
 את ודאי זוכרת, עוד שקיעה אחרת ילדה הפכת גברת
 אל תגידי לי לא, אל תגידי לי לא
@@ -664,11 +564,6 @@
 פזמון: תני סימן עם העיניים זה אצלך בין הידיים...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אל תטעי בדרך
-</t>
-  </si>
-  <si>
     <t>לא אל תטעי בדרך תביני אין בערך 
 כל כך רוצה אלייך, קשה לי בלעדייך 
 עצוב ורע לי בנשמה
@@ -682,11 +577,6 @@
 בתפילה נשאתי את עיניי אל המרומים
 שתחזור אליי עזור לי אלוקים
 פזמון: לא אל תטעי בדרך תביני אין בערך...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אל תלכי
-</t>
   </si>
   <si>
     <t>הלכנו בשניים לא רצית בכלל להתקרב
@@ -711,11 +601,6 @@
 בדרך מתפלל מודה לאל</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אל תלכי לי
-</t>
-  </si>
-  <si>
     <t>אל תלכי לי אל תלכי לי
 אין לי כוח להמשיך אולי תישארי
 הייתי מחובר אלייך כמו גוף אל הנשמה
@@ -737,11 +622,6 @@
 את הלבד אני רוצה...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אלוהי מדוע בעולם
-</t>
-  </si>
-  <si>
     <t>אלוהי מדוע בעולם, לא כל המזלות שווים
 לאחד יש מעט, לשני הרבה יותר
 מאז ובכל הזמנים
@@ -756,11 +636,6 @@
 וכמו פתי אל ים רגשות נסחפתי
 עמוק, הרחק מן החוף
 ובסוף הדרכים...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אלוהי
-</t>
   </si>
   <si>
     <t>מה אני עושה פה בלעדייך
@@ -790,11 +665,6 @@
 את אהבתי עד יומי האחרון</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אלין
-</t>
-  </si>
-  <si>
     <t>חוזר הביתה, עם רדת ערב
 שוב ללטף את תלתליה, מאוהב בה
 רבות אהבתי אותה פי אלף
@@ -811,11 +681,6 @@
 ואת נפשי העייפה, היא מחייה בי
 כשאותי היא מחבקת, הנשמה שלי צוחקת
 ונולדת מחדש</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אלינור
-</t>
   </si>
   <si>
     <t>אלינור את יפה כמו מלאך
@@ -843,11 +708,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/cM94tLvzuO0?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אם יש גן עדן
-</t>
   </si>
   <si>
     <t>יש רגעים
@@ -891,11 +751,6 @@
     <t>//www.youtube.com/embed/nLLS924fGUU?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אמא
-</t>
-  </si>
-  <si>
     <t>לא יכולה היא בלעדיך, כמו אוויר לנשימה
 בשבילה אתה גן עדן, כמו האור לנשמה
 מול כולם תהיה לוחמת, גם אם אתה בחוץ אשם 
@@ -913,11 +768,6 @@
 שתמיד תצעד קדימה, תנצח את כולם
 כי אין כמוה אין כמו אמא, אמא, אמא בעולם.
 אמא, אמא בעולם.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-הפוך מהיקום
-</t>
   </si>
   <si>
     <t>תמיד הבנת אותי הרבה יותר מכל אחד 
@@ -958,11 +808,6 @@
     <t>https://youtu.be/AdzLoLEs--Q?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-חונקת מאהבה
-</t>
-  </si>
-  <si>
     <t>קמתי על הבוקר בטירוף יוצא לסלון להרגע, ( הוא לא רגוע) 
 את מביאה לי עוד קפה הפוך אפשר ממך למות מאהבה ( זה לא גרוע) 
 תגידי את לא מבינה שאת לוחצת זה כואב, 
@@ -983,11 +828,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/u-K3BgkPOqs?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-יש לי רק אותך
-</t>
   </si>
   <si>
     <t>יש לי רק אותך, את בשבילי ואני שלך 
@@ -1013,11 +853,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/XkQg6PvnsiI?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-טוב לך איתו
-</t>
   </si>
   <si>
     <t>שוב אותם ימים ללא מנוח
@@ -1054,11 +889,6 @@
   </si>
   <si>
     <t>//www.mako.co.il/AjaxPage?jspName=embedHTML5video.jsp&amp;galleryChannelId=36f57998c2f70510VgnVCM2000002a0c10acRCRD&amp;videoChannelId=72002bb9c3b3f410VgnVCM2000002a0c10acRCRD&amp;vcmid=5fa8ba8495f70510VgnVCM2000002a0c10acRCRD&amp;autoplay=true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-שישי בצהריים
-</t>
   </si>
   <si>
     <t>יום שישי השעון כבר מראה צהריים 
@@ -1099,11 +929,6 @@
     <t>https://www.youtube.com/watch?v=05HUmYOjIPA&amp;autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-כשתגדל
-</t>
-  </si>
-  <si>
     <t>כשתגדל תוכל להיות מה שתרצה
 אז עכשיו נסה לחיות על הקצה
 קפוץ למים הקרים בלי מכנסיים 
@@ -1175,11 +1000,6 @@
 כי החיים הם כמו נהר אתה המים</t>
   </si>
   <si>
-    <t xml:space="preserve">
-שוב לאהוב
-</t>
-  </si>
-  <si>
     <t>זוג עיניים עצובות, עינייך הטובות , אומרות הכל הלילה
 ומבעד לדמעות אפשר לראות, אין שקט לליבך
 את נסגרת בעצמך שואלת איך, מכאן ללכת הלאה
@@ -1207,11 +1027,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/dNyWxFXydUo?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-גבר של אישה אחת
-</t>
   </si>
   <si>
     <t>מתגלגל כמו טיפה בים
@@ -1250,11 +1065,6 @@
     <t>//www.youtube.com/embed/ROPASVDkXCo?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-שמור עליו
-</t>
-  </si>
-  <si>
     <t>שמור עליו מפני השקט הזה
 שלא ישבור אותו לאט
 שמור עליו מפני הגשם הזה
@@ -1283,11 +1093,6 @@
     <t>//www.youtube.com/embed/xVhVU-1NPHU?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אתן לך
-</t>
-  </si>
-  <si>
     <t>אתן לך, אתן לך כל מה שאישה רק מבקשת
 לא תצטרכי לומר מילה פשוט לגשת
 אני סופה של אהבה עמוק ברוח
@@ -1307,11 +1112,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/VlT6dFLpOI0?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ואולי ביום יפה
-</t>
   </si>
   <si>
     <t>את גרה שם כשעץ מסתיר
@@ -1340,11 +1140,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/DwnoEUBZPA8?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ימים יגידו
-</t>
   </si>
   <si>
     <t>אם גופי יכאב עמוק את לכתך
@@ -1375,11 +1170,6 @@
 עכשיו שבור</t>
   </si>
   <si>
-    <t xml:space="preserve">
-הלילה תרקדי
-</t>
-  </si>
-  <si>
     <t>את לידי עוברת ונראית אחרת
 יש בתוכי חשמל גם כשאת מדברת
 יחד אתך פתאום הכול הופך להיות מושלם
@@ -1405,11 +1195,6 @@
     <t>//www.youtube.com/embed/AEo2I-oLF10?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-צללים של דמותה
-</t>
-  </si>
-  <si>
     <t>בעיניה את הכל אני ראיתי כבר
 היא החליטה לעזוב לא אמרה דבר
 את החיוך שעל פניי היא לקחה איתה
@@ -1430,11 +1215,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/bJe0Mp2pcdk?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אמרי לי
-</t>
   </si>
   <si>
     <t>אמרי לי על מה את חושבת
@@ -1467,11 +1247,6 @@
     <t>//www.youtube.com/embed/A_rkbLFvKLA?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-אסתדר לבד
-</t>
-  </si>
-  <si>
     <t>לפני שאת נוסעת 
 תני לי להסביר לך כמה דברים
 אני עצוב ואת יודעת
@@ -1492,11 +1267,6 @@
 ואמא'שלי אומרת כל הזמן שאת טיפוס הזוי
 היא לא מבינה שכאן לבד הלב שלי חצוי
 טוב לדעת שאת מתגברת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-את
-</t>
   </si>
   <si>
     <t>דברנו כל הלילה איך שלא הרגשנו את הזמן
@@ -1530,11 +1300,6 @@
     <t>//www.youtube.com/embed/P1OV_I6-5Gw?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-את היפה בנשים
-</t>
-  </si>
-  <si>
     <t>מבקש את ידך על הגשר
 וכמו בהילוך איטי דמעה אחת זלגה
 את מביטה בי במבט כזה של סתר
@@ -1548,11 +1313,6 @@
 הוא לא יפריד את ידינו השלובות
 שהחזיקו מעמד גם במרחק.
 את היפה בנשים...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-את לי לילה
-</t>
   </si>
   <si>
     <t>רק אותך אוהב הלילה 
@@ -1599,11 +1359,6 @@
     <t>//www.youtube.com/embed/6JTDUccDtJk?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-את שלי אני שלך
-</t>
-  </si>
-  <si>
     <t>מה עוד אפשר לבקש
 אם יש לי הכל משמיים 
 כוכב מעלי אותך מול עיני
@@ -1627,11 +1382,6 @@
 אני מחובר אלייך חזק
 קשור כמו היום אל הלילה
 את שלי אני שלך...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-אתה המלך דואט עם אייל גולן
-</t>
   </si>
   <si>
     <t>אם נכשלנו בדרכנו סלח לנו אב יקר 
@@ -1658,11 +1408,6 @@
 ממצולות קוראים אליך כל יכול 
 מי ייתן ועל כל עוונותינו תחמול 
 שיפתחו שעריי שמיים נצעק: "אתה המלך"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-באתי אלייך
-</t>
   </si>
   <si>
     <t>עברתי לידך ברחוב ממש כמו הרוח,
@@ -1692,11 +1437,6 @@
 והשקר יהיה לי חבר</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בגדים ומתנות
-</t>
-  </si>
-  <si>
     <t>כל היום היא מסתובבת בבתי קפה יושבת, 
 בכיכר איך היא אוהבת לטייל כמו פרימדונה 
 לה תמיד יש מצב רוח וחשבון בבנק פתוח
@@ -1710,11 +1450,6 @@
 אבל היא עוד מפנטזת ובעדינות רומזת 
 את המזוודה אורזת, איך שבא לי על מילאנו
 פזמון: תכניס, תכניס, תכניס, ת'יד לתוך הכיס...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-בגופיה צמודה
-</t>
   </si>
   <si>
     <t>בגופיה צמודה על אופניים	
@@ -1741,11 +1476,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/4E-sNCB_D0s?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-בואי נברח
-</t>
   </si>
   <si>
     <t>היי...
@@ -1777,11 +1507,6 @@
 אם את רוצה...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בובים בובות
-</t>
-  </si>
-  <si>
     <t>כשחנות צעצועים נסגרת
 וגומרים את האור בבניין לכבות
 בחנות החשוכה נשארת
@@ -1798,11 +1523,6 @@
 וילדים מגיעים מקרוב, מרחוק
 כל בובה למקומה חוזרת
 וכולם אז חוזרים לחייך ולשתוק</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-בוחר מחדש
-</t>
   </si>
   <si>
     <t>כל ערב חוזר רק אלייך
@@ -1835,11 +1555,6 @@
     <t>//www.youtube.com/embed/wXK2w8-i_RM?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בחוף של פורטוגל
-</t>
-  </si>
-  <si>
     <t>חיפשתי אהבה כל החיים
 הפלגתי על ספינה נודדת
 חציתי יבשות וגם ימים
@@ -1868,11 +1583,6 @@
     <t>//www.youtube.com/embed/E0nRHxP-RFc?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בין הטוב והרע
-</t>
-  </si>
-  <si>
     <t>אמרת לי שאת כה אוהבת
 שאני היקר לך בחלד
 שתלכי אחרי כעיוורת
@@ -1894,11 +1604,6 @@
 מאבד את ראשי וחושי
 ועוטף את כולך בזרועותי
 אך מתי כבר תבחיני...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-בלי להתכוון
-</t>
   </si>
   <si>
     <t>בלי להתכוון לקחת לי את הרוח 
@@ -1925,11 +1630,6 @@
 ולרגע עברת פה מולי בלי להתכוון</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בלילותי
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">איך חדרה אל עולמי איני יודע
 מה קסמה ומה פישרה אל יודע
 כמו יונה צחורת כנף מבשרת
@@ -1946,11 +1646,6 @@
 ושוב תבוא אלי
 תנחם אותי ותאהב
 תאהבני עד בלי די
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-בלעדייך
 </t>
   </si>
   <si>
@@ -1994,11 +1689,6 @@
     <t>//www.youtube.com/embed/pJUOvbD9pus?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בסוף כל יום
-</t>
-  </si>
-  <si>
     <t>פעם בלילות, הייתי קצת נבהל
 עם הזמן אני הבנתי - הפחד הוא גלגל
 כשהמילים נעלמות, חודרות לאט לעצמות
@@ -2026,11 +1716,6 @@
 כמעט שכחתי לרגע מי אני</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בעירי
-</t>
-  </si>
-  <si>
     <t>בעירי הרחובות שטופים באהבה
 וקופידון יושב לו בשמיים
 כל האוהבים באים ומחפשים תשובה
@@ -2054,11 +1739,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/dfxE6Dv5lG0?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ברצלונה
-</t>
   </si>
   <si>
     <t>אלייך בא אני
@@ -2093,11 +1773,6 @@
     <t>https://www.youtube.com/embed/twBB8pyLKYc?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בשבילך
-</t>
-  </si>
-  <si>
     <t>החיים האלה לא נתנו לי שקט
 עד שבאת והסתדר פתאום הכל
 והצלחתי להרגיש פתאום בנוח
@@ -2115,11 +1790,6 @@
 את הסדק בנשמה שלי ריפאת
 העלמת מועקה בלילותי
 בשבילך אתן את מה שיש בי...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-בשבילך נוצרתי
-</t>
   </si>
   <si>
     <t>לא הפסקתי אפילו לשניה
@@ -2152,11 +1822,6 @@
 לשמור עלינו כמו על העיניים!</t>
   </si>
   <si>
-    <t xml:space="preserve">
-בתוך הקסם
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">מתוך ערפל את חוזרת
 אל תוך נשמתי הבוערת
 ואת יפה שזה כואב
@@ -2178,11 +1843,6 @@
 יש בעולם ים אהבה
 אך אין אישה כמוך אני נשבע
 אלוהים, כשבך אני נוגע...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ג'ונגל
 </t>
   </si>
   <si>
@@ -2214,11 +1874,6 @@
 את ניצבת למולי 
 ולכן מאהבה, אני שר לך בלי מילים 
 נה נה נה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-גשם במאי
-</t>
   </si>
   <si>
     <t>בואי אלי כמו גשם במאי
@@ -2254,11 +1909,6 @@
 בואי אלי כמו גשם במאי...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-דברי איתי
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">מכל אותן הנערות שאהבתי בחיי
 אותך אהבתי קצת יותר, קצת יותר מדי
 ואילו רק אני יכול למחוק בצער את הכל
@@ -2277,11 +1927,6 @@
 ואילו רק אני יכול שוב להסביר לך את הכל
 את כל מה שאני חושב עד כמה שאני אוהב
 דברי איתי מעט...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-דוהר לתוך הפקק
 </t>
   </si>
   <si>
@@ -2305,11 +1950,6 @@
 למי בסלולארי את כותבת הודעה? 
 הייתי רוצה לדעת יותר אבל אני ממהר 
 תני לי כיוון...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-דז'ה וו
-</t>
   </si>
   <si>
     <t>כשבאת לאסוף את הילדים
@@ -2333,11 +1973,6 @@
 את ישבת בפינה
 ת פסת לך עיתון בשקט
 חזרת למיטה ליטפת פניי ואת צוחקת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-דמעות
-</t>
   </si>
   <si>
     <t>פני קטיפה שראיתי
@@ -2369,11 +2004,6 @@
     <t>//www.youtube.com/embed/_YKdywbOfbE?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-דרך לחיים
-</t>
-  </si>
-  <si>
     <t>אותך רציתי כל הלילה 
 נסעתי כה רחוק וכמה 
 עוד דקה עד שאגיע אלייך 
@@ -2397,11 +2027,6 @@
 הוי אלוהי...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-האהבה הישנה
-</t>
-  </si>
-  <si>
     <t>האהבה הישנה, זאת שברחה לי,
 מונחת שם ואף אחד כבר לא נוגע,
 מזמן לפני כל הסרטים הפורנוגרפיים,
@@ -2427,11 +2052,6 @@
     <t>//www.youtube.com/embed/GWms3K5yqfE?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-האהבה הישנה שלי
-</t>
-  </si>
-  <si>
     <t>היינו שנינו ילדים, בעולם כזה ישן
 חורטים סודות כמוסים באדמה הרטובה
 אז נתתי לך מזכרת – צמיד חוטים לבן
@@ -2454,11 +2074,6 @@
 בשק שינה בוער אני נמסתי לתוכך</t>
   </si>
   <si>
-    <t xml:space="preserve">
-האור שבעיניים
-</t>
-  </si>
-  <si>
     <t>את חושבת שאני מוזר ועצבני
 ואומרת שאני לגמרי לא אני
 יכול להיות שזה בגלל האהבה
@@ -2478,11 +2093,6 @@
 קטפתי פרח בצבעי האהבה
 אמרו שאת כבר ישנה
 את האור שבעיניים את חיוך עד השמיים...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-האם להיות בך מאוהב
-</t>
   </si>
   <si>
     <t>האם להיות בך מאוהב 
@@ -2506,11 +2116,6 @@
 ואם את רוצה לשמוח תברחי 
 כי כל כך מטריד אותי 
 מה זה להיות בך מאוהב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-הדרך ארוכה
-</t>
   </si>
   <si>
     <t>הדרך ארוכה מפותלת
@@ -2559,11 +2164,6 @@
     <t>//www.youtube.com/embed/ChuI3rPqvuQ?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-הוזה אותך מולי
-</t>
-  </si>
-  <si>
     <t>היינו זוג כל כך מושלם, את ואני
 והיום כבר לא רואים אחד את השני
 לא חבל על שנינו, את זה לא הבנתי
@@ -2586,11 +2186,6 @@
     <t>//www.youtube.com/embed/OqvjE5c4444?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-הופה פה
-</t>
-  </si>
-  <si>
     <t>לילה לילה היא רוקדת לצלילי המנגינה 
 את כולם היא סוחפת בתוך הרחבה
 והופה הופה פה איזה קצב מטורף
@@ -2607,11 +2202,6 @@
 אני כאן משתגע ואין מי שיושב
 הופה הופה פה איזה קצב מטורף
 הופה הופה פה נגנו נגנו לנשמה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-החיים אחרייך
-</t>
   </si>
   <si>
     <t>שוב נתקפתי געגוע 
@@ -2640,11 +2230,6 @@
 שאני לעולם לא אשכח</t>
   </si>
   <si>
-    <t xml:space="preserve">
-החלום שלי
-</t>
-  </si>
-  <si>
     <t>אמרת שתחשבי אני עוד מחכה לך
 החלום שלי שבוי באפלה
 לבדי יושב על גיטרה מנגן לך
@@ -2665,11 +2250,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/OG4r6UpiTgg?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-הכי טובה בעולם
-</t>
   </si>
   <si>
     <t>את יודעת איך לבוא בשקט
@@ -2698,11 +2278,6 @@
 את הכי טובה בעולם...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-הלב שלי
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">מחפש ולא מוצא מילה 
 להגיד כמה את יקרה לי 
 מביט בך מאושר ולא אומר דבר 
@@ -2729,11 +2304,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-הלילה השחור
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">אל תוך הלילה השחור אני נוסע
 חוצה גבולות ערים זרות וסמטאות
 אני לא איתך כי העולם קצת השתגע
@@ -2760,11 +2330,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-הלילה שלך
-</t>
-  </si>
-  <si>
     <t>הלבנה זוהרת בלילה לכבודך
 פעמונים ברוח מצלצלים את שמך
 מישהו נשבע לנצח לאהוב אותך
@@ -2785,11 +2350,6 @@
 הלבנה זוהרת בלילה לכבודך...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-הללויה
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">הללויה
 הללו אל בקודשו
 הללוהו ברקיע עוזו
@@ -2802,11 +2362,6 @@
 הללוהו בצלצלי שמע
 הללוהו בצלצלי תרועה
 כל הנשמה תהלל יה הללויה
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-המציאות שלך
 </t>
   </si>
   <si>
@@ -2855,11 +2410,6 @@
     <t>//www.youtube.com/embed/Ib_ReCL8txg?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-הסתכלי אלי
-</t>
-  </si>
-  <si>
     <t>ברחובות הכל סגור
 שלוש אחר חצות
 רואה אותך במועדון יקר
@@ -2891,11 +2441,6 @@
     <t>//www.youtube.com/embed/M71qBXtvURY?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-הפרח בגני
-</t>
-  </si>
-  <si>
     <t>מיום אביב בהיר וצח אותך אני זוכר
 וכבר מאז היטב ידעתי שלא אוותר
 כי לי היית בבת עיני בכל יום וכל ליל
@@ -2916,11 +2461,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/0Rt6ifAG2Mc?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-הריקוד הוא שלך
-</t>
   </si>
   <si>
     <t xml:space="preserve">כשאת ברחבה רוקדת בך כולם שולחים מבט
@@ -2948,11 +2488,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/zsS4QQNzeLY?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-השיר האחרון
-</t>
   </si>
   <si>
     <t xml:space="preserve">שוב חוזר כי סוף הדרך
@@ -2993,11 +2528,6 @@
     <t>//www.youtube.com/embed/UyYfzVL06ng?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-השמיים הם הגבול
-</t>
-  </si>
-  <si>
     <t>השמיים הם הגבול
 אבל אני יותר מתגעגע
 לא אוכל עכשיו לומר לך
@@ -3021,11 +2551,6 @@
 שכמה שקט לי כאן מידי</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ואיך בשמיים
-</t>
-  </si>
-  <si>
     <t>ואיך שאמרת לי את שמך ידעתי שזאת אהבה
 יופייך את חושי משכר, מעולם לא חיפשתי תשובה
 לכתך אחרי בחולות, הרגשתי שבוי באגדה
@@ -3045,11 +2570,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/6lrSxlLgwxw?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ואני קורא לך
-</t>
   </si>
   <si>
     <t>השמיים לא בישרו על סערה
@@ -3082,11 +2602,6 @@
     <t>//www.youtube.com/embed/Uek72vsnahc?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-זה אני
-</t>
-  </si>
-  <si>
     <t>בית ריק, כמה קר לי
 אלוהים, את חסרה לי
 מדמיין אותך בחושך
@@ -3114,11 +2629,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/x2pOy9g0nnw?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-זה לא חלום
-</t>
   </si>
   <si>
     <t xml:space="preserve">בכל ליבי אהבתיך באמת,
@@ -3148,11 +2658,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-זה מוזר
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">יש בי אהבה שלא נגמרת
 רק איתך אני שלם ואמיתי
 כמו נסיכה יפה מאגדה אחרת
@@ -3177,11 +2682,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-זה מסוכן
-</t>
-  </si>
-  <si>
     <t>איך לא סיפרו לי עד כמה מסוכן יהיה להתאהב בך
 חשפתי את הלב הגעתי לא מוכן, עכשיו אני בורח
 איך את לא מתקשרת אליי 
@@ -3200,11 +2700,6 @@
 זה מסוכן, שאת פתאום תלכי ותעלמי מכאן
 כמו ילד אתרסק מולך, איני יכול לקחת שוב עוד סיכונים 
 איני יכול לתת ללב כל פעם מחדש לסבול בזמן שאת נשענת על כתפו</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-זר כיסופים
-</t>
   </si>
   <si>
     <t>זר כיסופים קטפתי לעת ערב 
@@ -3232,11 +2727,6 @@
 והסליחה הבאתי עימדי 
 ועוד אחת ערמו לך לילותי
 וקולי נמלא געגועים...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-זרה
-</t>
   </si>
   <si>
     <t xml:space="preserve">אמרת את מר ליבך
@@ -3277,11 +2767,6 @@
     <t>//www.youtube.com/embed/ZMa9IDsWJ-4?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-חוף אל חוף
-</t>
-  </si>
-  <si>
     <t>כל הלילה לא נרדמתי
 השינה אותי נטשה
 ובשקט התחננתי
@@ -3311,11 +2796,6 @@
 חוף אל חוף...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-חזק יותר
-</t>
-  </si>
-  <si>
     <t>כולם יושבים מולי עכשיו מוחאים כפיים, 
 ואני אחד שסתם נשבר לו הלב
 כשהחיוך נשאר אצלו רק לבינתיים 
@@ -3343,11 +2823,6 @@
 פעם אמרת לי אל תוותר תמיד רק ניצחנו ביחד
 מול כל העולם יעידו כולם מי את בשבילי
 מי את בשבילי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-חזרי אלי
-</t>
   </si>
   <si>
     <t>מעל העננים האפורים
@@ -3421,11 +2896,6 @@
 חזרי אלי, חזרי אלי...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-חייל של אהבה
-</t>
-  </si>
-  <si>
     <t>זה הלילה הראשון שאת לבד נשארת
 אני נמצא רחוק ממך
 גשם זלעפות בחוץ אבל בי אש בוערת
@@ -3452,11 +2922,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/LdX5Fa5Av9w?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-חיים שלמים
-</t>
   </si>
   <si>
     <t>את זכרוני ממך משחר נעוריי
@@ -3491,11 +2956,6 @@
     <t>//www.youtube.com/embed/7-HoKc5Ubso?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-חלומות
-</t>
-  </si>
-  <si>
     <t>חלומות של אתמול
 הם שלהבות נרעדות
 לא יכול כל החושך
@@ -3516,11 +2976,6 @@
 אל לבבך
 חלומות של אתמול
 הם שלהבות.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-חלק מחיי
-</t>
   </si>
   <si>
     <t>יד האל או יד גורל הביאה אותך
@@ -3559,11 +3014,6 @@
 בסרט של חיי</t>
   </si>
   <si>
-    <t xml:space="preserve">
-טוב בלב
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">את מתוקה, זוהרת, יפה וחושנית
 והיופי משפתייך שאת לי חייכנית
 תנשקי אותי, בשבילך אהיה אביר
@@ -3613,11 +3063,6 @@
 חיפשתי לשווא בכל הרחובות...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ידעת שזה זמני
-</t>
-  </si>
-  <si>
     <t>אני רוצה שתהיי יפה, בדיוק לטעמי
 עם ריח מתוק וחיוך אלוהי
 רוצה שתדעי מה זה עצב וגעגועים
@@ -3634,11 +3079,6 @@
 רוצה שתיכנסי לצרה קטנה
 ואני אציל אותך ואת תכירי לי תודה.
 אני לא מחפש ריגושים...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ילדתי נא שובי
-</t>
   </si>
   <si>
     <t xml:space="preserve">לכתוב עלייך ולתאר
@@ -3677,11 +3117,6 @@
     <t>//www.youtube.com/embed/saWy9bBVusM?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ילדתי שלי
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">בשבילך איני אורח אחד שבא או סתם בורח
 לגעת בך רציתי מאוד, לא נתת לי גם כשבאתי
 אחרייך סתם מיהרתי ולשווא היו שירי.
@@ -3698,11 +3133,6 @@
 לפעמים קשתה הדרך 
 וחיי איבדו כל ערך ילדתי איתי
 ילדתי שלי...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ים פרחים
 </t>
   </si>
   <si>
@@ -3726,11 +3156,6 @@
 מאוהב בך... אי אי אי
 ים פרחים שלחתי לך
 אנא אמרי לי מה יהיה איתך
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ים של טעויות
 </t>
   </si>
   <si>
@@ -3761,11 +3186,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/w4BB4Rg8m5w?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-יפה לך להיות מאושרת
-</t>
   </si>
   <si>
     <t>לא לבד היום, את הופעת פתאום, 
@@ -3796,11 +3216,6 @@
 רק אוהב יותר כל יום זה רק מתגבר 
 יש לנו זמן עוד מוקדם אז אל תהיי מאוחרת 
 בדידות שמתחמקת כי החדר כבר לא קר אין דבר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-יפה שלי
-</t>
   </si>
   <si>
     <t>אם תרצי לדבר מחר אני חוזר
@@ -3837,11 +3252,6 @@
     <t>//www.youtube.com/embed/-ZWUycv07d0?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-יפיופה
-</t>
-  </si>
-  <si>
     <t>יפיופה, בואי אלי
 תני לי נשיקה על השפתיים
 יפיופה 
@@ -3864,11 +3274,6 @@
     <t>//www.youtube.com/embed/aiuGcMAJ6x0?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ירח נעלם
-</t>
-  </si>
-  <si>
     <t>כבר כיבו את השמיים ירח נעלם בינתיים
 היי, לאן אלך, לי אין כח עוד לברוח מיופייך רוצה לשכוח 
 איך, איך אתגבר 
@@ -3885,11 +3290,6 @@
 מה עובר בתוך חייך ומתחת לשמיכות
 אם הכאבתי לך ילדונת אם פגעתי מצטער
 מה בסך הכל ביקשתי לאהוב ולא יותר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-כבר לא יכול
-</t>
   </si>
   <si>
     <t xml:space="preserve">את כובשת את כל מי שפעם חלם
@@ -3917,11 +3317,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-כדי שאלך
-</t>
-  </si>
-  <si>
     <t>סוף היום ואת עוד מתנגנת בלילות שוב תמיד את חוזרת להאיר בי את כל מה שכבה
 סוף היום את פותחת לי דלת איך תמיד לצידי את נשארת, את, האחת שעטפה.
 בימים שהייתה נעלמת, את היית יחידה ששומרת, לא הצלחתי לראות כמו עיוור רדפתי אותך
@@ -3942,11 +3337,6 @@
 רק אל תגידי לי כבר מאוחר רק כדי שאלך</t>
   </si>
   <si>
-    <t xml:space="preserve">
-כואב ושר
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">גם מבור אסיר כואב ושר לך
 על תקווה אחת שכבר אבדה.
 מנבכי הלב, מתוך הלילה
@@ -3964,11 +3354,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-כל החלומות
-</t>
-  </si>
-  <si>
     <t>איך הימים איך הימים עוברים עליי שהיא איננה
 כבר אין בי כוח שוב לברוח מעצמי
 לאן אפנה לאן אפנה כל הלילות חושב עליה
@@ -3984,11 +3369,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/rgqHT-iy8kA?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-כל כך יפה
-</t>
   </si>
   <si>
     <t>יש לה אש בוערת בעיניים, סומק בלחיים 
@@ -4045,11 +3425,6 @@
 כל כך יפה כל כך יפה שזה כואב 
 כולם רוצים אותה לתת לה אהבה 
 אבל הם פוחדים להתקרב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-כמה ימים
-</t>
   </si>
   <si>
     <t>רציתי לעצור הכל לכמה רגעים 
@@ -4089,11 +3464,6 @@
 נולדנו לשיר לחייך ולחיות</t>
   </si>
   <si>
-    <t xml:space="preserve">
-כמו צועני
-</t>
-  </si>
-  <si>
     <t>ך אני שר מול ירח, מה בליבי האוהב,
 בקול ניחר אזמר לך, את סודותיי עד כאב
 נפשי משתוקקת אלייך, ללגום עד יבשו שפתותייך
@@ -4116,11 +3486,6 @@
 את רוקדת ושרה והלב עוד בודד</t>
   </si>
   <si>
-    <t xml:space="preserve">
-כמו רוח סערה
-</t>
-  </si>
-  <si>
     <t>ראיתיך ברחוב עוברת ילדה יפה תמימה
 מול פני את כך חולפת כמו רוח סערה
 את שכל חיי חלמתי בלילות
@@ -4134,11 +3499,6 @@
 אני שכל חיי שברתי לבבות
 בחדרי עכשיו יושב פה וליבי מלא תקוות
 הלילה לחבוק גופך בלילה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-כמו שיכור
-</t>
   </si>
   <si>
     <t>איך רציתי אותה איתי
@@ -4162,11 +3522,6 @@
 שעשיתי הכל
 רק אותה לאהוב
 והקדשתי לה המון שירים.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-כנף הרוח
-</t>
   </si>
   <si>
     <t>שוב זו את
@@ -4193,11 +3548,6 @@
 את אהבתך נתת רק בשבילו</t>
   </si>
   <si>
-    <t xml:space="preserve">
-כשאחר
-</t>
-  </si>
-  <si>
     <t>כשאחר יסתנוור מהאור שבעינייך
 יטעם את הטעם של שמך
 יחבק וישתיק בשתי ידיו את כל פחדייך
@@ -4219,11 +3569,6 @@
 אז אני אתפרק לבד וקצת רחוק
 כשאחר יזדקן לצידך
 רק אז אני אשבר...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-כשאת איתו
-</t>
   </si>
   <si>
     <t>פתאום הלכת ממני הלך איתך גם החלום
@@ -4253,11 +3598,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/g4t2GDIoquE?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-כשאת צוחקת
-</t>
   </si>
   <si>
     <t>תני לי לחבק אותך קרוב ללב
@@ -4286,11 +3626,6 @@
 שיהיו עוד מכשולים
 וביחד נהנה מהחיים
 כשאת צוחקת...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לא מבינה עברית
-</t>
   </si>
   <si>
     <t>איך היא נכנסת עם הפוזה של האלפיון 
@@ -4331,11 +3666,6 @@
 ‎לא יודע איך הגעתי לכאן</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לא פשוט להיות פשוט
-</t>
-  </si>
-  <si>
     <t>גשם בחוץ נוסעים לעוד הופעה, 
 שוב עולה אל הבמה ושוב נדלקים האורות,
 אני עוצם את העיניים ומדמיין שאת עדיין 
@@ -4361,11 +3691,6 @@
 גשם בחוץ וחוזרים מעוד הופעה</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לאהוב אותך
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">לאהוב אותך
 הלב אומר
 לאהוב אותך
@@ -4391,11 +3716,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-לאן את הולכת
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">תני עוד טיפה
 טיפה אחת מכל האור
 תני עוד מבט
@@ -4419,11 +3739,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/C7wIUPz1AuE?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לאן הגענו
-</t>
   </si>
   <si>
     <t>בתוך עולם של פלאפונים
@@ -4489,11 +3804,6 @@
 ובלילה לילה אני לא נרדם...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לב חולה
-</t>
-  </si>
-  <si>
     <t>לב חולה הלילה
 פרידה אחת יותר מדי
 עזבת אותי הלילה
@@ -4522,11 +3832,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/OvEmbHN-qZY?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לב שבור
-</t>
   </si>
   <si>
     <t>לב שבור,
@@ -4577,11 +3882,6 @@
 ורק אהבתך היא המפתח.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לב של גבר
-</t>
-  </si>
-  <si>
     <t>כל מה שנשאר לי להגיד שלום
 עזבתי את הבית ונשאר חלום
 לא רצית לשמוע מה שיש לומר
@@ -4619,11 +3919,6 @@
     <t>//www.youtube.com/embed/WB8yVmFb-Uc?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לבד לבד
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">לבד לבד
 הולך אדם הולך עד כלות כוחותיו
 לבד לבד
@@ -4642,11 +3937,6 @@
 יש ימים בהם יחוש מעט יגע
 יש ימים בהם ימצא מעט מרגוע
 ואולי נחמה
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לבדי
 </t>
   </si>
   <si>
@@ -4675,11 +3965,6 @@
 רק אלוהים שמר עליי</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לו הייתי
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">אל תהי דלתך סוגרת
 ובכאב מענה את אוהבך
 תני ידך ביד אוהבת
@@ -4694,11 +3979,6 @@
 לו הייתי צבע אודם המרוח על שפתך
 או עדי זהב או כסף התלוי על צווארך
 אל תהי דלתך סוגרת...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לו הייתי יכול
 </t>
   </si>
   <si>
@@ -4727,11 +4007,6 @@
 ה יית יותר קרובה
 מחכה בתור לאהבה
 לו הייתי יכול</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לוחמת
-</t>
   </si>
   <si>
     <t>מספרים עלי שאני קצת השתניתי
@@ -4765,11 +4040,6 @@
     <t>//www.youtube.com/embed/X308PIRPl88?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לחזור בזמן
-</t>
-  </si>
-  <si>
     <t>יושב בחוף הים מחשבות מפה לשם, 
 אולי טעיתי שאמרתי לך ללכת
 ברוח האוויר מתקרב לו האביב, 
@@ -4793,11 +4063,6 @@
 תנסי להאמין, לסלוח, להבין 
 אני רוצה שתחזרי אל תוך חיי
 מנסה לחזור בזמן מדמיין אולי את כאן...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לחישה בלילה
-</t>
   </si>
   <si>
     <t>לחישה בלילה והיא איננה
@@ -4827,11 +4092,6 @@
 רק זאת ביקשתי...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לטרוף את כל העולם
-</t>
-  </si>
-  <si>
     <t>תמיד רצית אחד כזה חכם שבשבילך
 הוא עוד יכבוש את העולם
 כל ערב שישוב רק לביתך יביא לך
@@ -4859,11 +4119,6 @@
 תרשי לו לשחק את המשחק</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ליאם
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">להתעורר לתוך חלום לראות אותך
 לנשום את הניחוח המתוק
 לדגדג אותך ולהרגיש פתאום
@@ -4884,11 +4139,6 @@
 ליאם, גוזל קטן
 פרי מתוק של עץ האהבה
 ליאם שלי, עיניים ים
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לילד הזה התפללתי
 </t>
   </si>
   <si>
@@ -4916,11 +4166,6 @@
 תן לחוש באור שבקצה המנהרה...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ללכת או להישאר
-</t>
-  </si>
-  <si>
     <t>התלבטות חותכת את חיי 
 זה בכלל לא פשוט 
 הלב תוהה אולי כי באחרת הוא לכוד 
@@ -4940,11 +4185,6 @@
 רוצה אותך אבל יכול להפסיד את הכל 
 ללכת או להישאר לעצמי לא לשקר 
 שתי אהבות כאב גדול להפסיד את הכל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-למה נשמה
-</t>
   </si>
   <si>
     <t>הבדידות עכשיו אוחזת בי ברגש
@@ -4968,11 +4208,6 @@
 תני סיכוי קטן שנהיה ביחד,
 כך אוכל להסיר דאגה מליבי
 למה נשמה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-למות מקנאה
-</t>
   </si>
   <si>
     <t>את נותנת לי חום
@@ -4998,11 +4233,6 @@
 שרוצה מהמתוק
 לך אמרתי די
 לא יכול להתרגל...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לנצח בני
-</t>
   </si>
   <si>
     <t>ילדי תשמור על עצמך מכל צרה -
@@ -5040,11 +4270,6 @@
 כי גם אתה ילדי, בסוף תפרח.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לקנות לך יהלום
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">אני נוסע אבל חושב עליה
 הזכרונות במזוודה
 אני לא בורח ואני יודע
@@ -5073,11 +4298,6 @@
     <t>//www.youtube.com/embed/CQv9FleO4Uk?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-לשיר וכדורגל
-</t>
-  </si>
-  <si>
     <t>שלוש שעות על הכביש נוסע בלי להרגיש
 חושב עלייך כל הדרך
 היכרנו דרך חבר הלב דפק לי מהר היית הכי יפה בחדר
@@ -5094,11 +4314,6 @@
 כי כל החברות שלך שיגעו את יודעת 
 שבא לי לחבק אותך להיות תמיד הכי שלך רוצה רק אלייך, אלייך
 פזמון: כי בא לי כבר לי ללכת אל הים לשים לך טבעת...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-לשכת עבודה
-</t>
   </si>
   <si>
     <t>הלכתי לשכת עבודה אמר לי מאיפה אתה 
@@ -5141,11 +4356,6 @@
 ביני ובינק</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מאוהב כל הלילה
-</t>
-  </si>
-  <si>
     <t>מאוהב כל הלילה, מחכה ואת לא באה
 לא אשן כל הלילה, אני פה במסיבה
 מחכה שתבואי, בלעדייך לא אעזוב
@@ -5160,11 +4370,6 @@
 את האישה לה חיכיתי אחכה כל החיים
 את אהבה שרציתי כי זה עמוק בפנים
 מאוהב כל הלילה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מאושרת
-</t>
   </si>
   <si>
     <t>קחי לך זמן ותגלי לאן
@@ -5192,11 +4397,6 @@
 מאושרת...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מאמי
-</t>
-  </si>
-  <si>
     <t>זה החיים שלנו ככה מאמי, אני אוהב אותך עדיין האני, 
 ומחכה ליום שאת כבר תחזרי ובלילות שאנו לא ביחד, 
 צללים תופסים אותי נכנס בי פחד,
@@ -5222,11 +4422,6 @@
 אנא אפנה, אשא קולי, זה החיים שלנו.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מבעד לדמעה
-</t>
-  </si>
-  <si>
     <t>כמה כאב שלחת בי, כמה כאב
 אם זה כך אז גם אני עוזב
 לא זוכר מה זה להיות לבדי
@@ -5246,11 +4441,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/oB1Qef22RBc?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מבקשים חיים
-</t>
   </si>
   <si>
     <t xml:space="preserve">ילדים בדרך ניצנים קטנים
@@ -5274,11 +4464,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/mKzKS_9Z7io?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מגרש השדים
-</t>
   </si>
   <si>
     <t xml:space="preserve">מי מגרש את השדים?
@@ -5309,11 +4494,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-מדמיין אותך
-</t>
-  </si>
-  <si>
     <t>זה היום לו חיכיתי, זה שנים
 היום הזה יהיה יום חג
 לי ולך כל החיים..
@@ -5341,11 +4521,6 @@
 ולדמיין אותך</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מותק של אישה
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">איתך - אני אדם מאוהב
 וכל הרגעים הופכים לקסם
 איתך - הכל זה כאן ועכשיו
@@ -5373,11 +4548,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-מזמור לגלעד
-</t>
-  </si>
-  <si>
     <t>מזמור לגלעד
 ה' רועי לא אפחד
 שפתי לוחשות הנני
@@ -5401,11 +4571,6 @@
 ענני, מעיר מצור אקרא...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מחכה לך
-</t>
-  </si>
-  <si>
     <t>יום אחד תבואי ואת ליבי תכניעי 
 על מרבדים של קסם אפרוש מילותי
 אשיר לך סרנדה , לא צריך גיטרה 
@@ -5423,11 +4588,6 @@
 אני אבוא אליך כמו גנב 
 לאור כוכב, אותך אוהב. 
 מחכה לך ואת מתמהמהת...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מטורף 
-</t>
   </si>
   <si>
     <t xml:space="preserve">פעם בחיים לאהוב אותך
@@ -5451,11 +4611,6 @@
 כן יפה שלי, לך אני מכור
 את האור שבא אל נשמתי.
 כמו מטורף אלייך...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מי ידע שכך יהיה
 </t>
   </si>
   <si>
@@ -5498,11 +4653,6 @@
     <t>//www.youtube.com/embed/PIFimMxBSB0?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מי שמאמין
-</t>
-  </si>
-  <si>
     <t>בכל מקום, כל הזמן 
 יש לכולנו מגדול ועד קטן 
 ימים יפים, וגם פחות 
@@ -5529,11 +4679,6 @@
 מי שמאמין לא מפחד...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מילה טובה
-</t>
-  </si>
-  <si>
     <t>אם החיים סוגרים עליה
 והאור שבלב כבה מזמן
 את החיוך שעל פניה
@@ -5560,11 +4705,6 @@
 שתאמר לה פשוט מילה טובה</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מיליון או דולר
-</t>
-  </si>
-  <si>
     <t>בתיבת הדואר מחכים לי מכתבים
 נערות כותבות לי סיפורים כל כך יפים
 שולחות תמונה ובתמונה הן צוחקות
@@ -5589,11 +4729,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/1rWUmmr9Vbg?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מכל אותם הפזמונים
-</t>
   </si>
   <si>
     <t>שרתי כבר את לי מלכת היופי
@@ -5621,11 +4756,6 @@
 כשיצאת אלי מחלונך ידעתי
 שזה הרגע בו ראיתי בך אישה
 מכל אותם הפזמונים...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מלאך
-</t>
   </si>
   <si>
     <t>ועכשיו כשהדרכים שוב מובילות אותך,
@@ -5658,11 +4788,6 @@
 כל המילים שאומר...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מלאך שומר
-</t>
-  </si>
-  <si>
     <t>אם תתני טיפה
 אתן לך ים
 אם תושיטי יד
@@ -5686,11 +4811,6 @@
 ורק תדעי...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מלאת אהבה
-</t>
-  </si>
-  <si>
     <t>רק פיתחי את ליבך
 אם תרצי לחייך ואבוא עד אלייך
 להרגיש מקרוב ואותך לאהוב
@@ -5710,11 +4830,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/Z1kur_DLYvk?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מלך המגרש
-</t>
   </si>
   <si>
     <t>הייתי נער בשכונה יפה
@@ -5747,11 +4862,6 @@
     <t>//www.youtube.com/embed/TmRG9Uean30?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מלך העולם
-</t>
-  </si>
-  <si>
     <t>כל הסוף שבוע חולמים רק בגדול, 
 יש דירת פאר חשבת זהו יש הכל
 עוד שניה מגיע יום המנוחה 
@@ -5765,11 +4875,6 @@
 אורות דלקו עליי ואיך אני טעיתי, 
 כמו הצל שלי כזה גדול הייתי
 חביבי חביבי, אל תסתנוור חביבי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מלכי המלכים
-</t>
   </si>
   <si>
     <t>סלח לי אבי כי חטאתי לך
@@ -5801,11 +4906,6 @@
     <t>//www.youtube.com/embed/oNsX7x54Tyk?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מלכת היופי שלי
-</t>
-  </si>
-  <si>
     <t>בדרך לא דרך, אני בא אלייך
 אולי נולדתי לשיר למענך
 אור הירח מביט בלילותייך
@@ -5826,11 +4926,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/KIjKR3LxoWM?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ממריא
-</t>
   </si>
   <si>
     <t>מסתובב, מתערבב, משתגע
@@ -5860,11 +4955,6 @@
 אותך... אותך</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מנגינה
-</t>
-  </si>
-  <si>
     <t>זו אותה מנגינה בליבי 
 שלוקחת אוספת אותי
 אל המחר , אל עולמי 
@@ -5880,11 +4970,6 @@
 להמחיש כמה כח ללב 
 גם כשנדמה שזה לא אפשרי
 לא תכבה האהבה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מנגינת הלב
-</t>
   </si>
   <si>
     <t xml:space="preserve">במקהלה כולם גברים את מנצחת
@@ -5914,11 +4999,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-מפה לשם
-</t>
-  </si>
-  <si>
     <t>הימים כל כך יפים ואנחנו אוהבים
 בחיוך קטן שלך את עולמי כבשת
 היינו ממש כמו זוג יונים
@@ -5940,11 +5020,6 @@
 לא מבין איך זה קרה
 איך ידך ביד אחר שלובה
 מפה לשם שואל היכן...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מצטער
-</t>
   </si>
   <si>
     <t>מי ההוא שבא אלייך
@@ -5976,11 +5051,6 @@
     <t>//www.youtube.com/embed/VSQ5haTLKB8?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מציאות אחרת
-</t>
-  </si>
-  <si>
     <t>נפגשנו מאוחר מדי,
 אמרת לי שאת מאוהבת,
 שבנית איתו בית, שטוב לך איתו,
@@ -6001,11 +5071,6 @@
 עם פגישה כמו זאת לא מקרית בוודאי
 ואולי מאוחר מדי
 אולי בזמן אחר...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-משחקים של כבוד
-</t>
   </si>
   <si>
     <t>לקחת מזוודה שקט בינתיים, 
@@ -6036,11 +5101,6 @@
 איכזבת בגדול, איכזבת בגדול</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מתגעגע
-</t>
-  </si>
-  <si>
     <t>פתאום כמו מכת חשמל
 הלב שלי נפל
 אמרת שאת עוזבת
@@ -6065,11 +5125,6 @@
 כל הלילה לא נרדם לבד...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-מתפוצץ בגללך
-</t>
-  </si>
-  <si>
     <t>כבר כמעט שלוש בלילה לבדי כי את אינך איתי 
 מדמיין אותך הלילה, כי זו את שאהבה נפשי 
 כבר עבר שבוע, אני לא רגוע, לא יכול כשאת נסגרת 
@@ -6087,11 +5142,6 @@
 כבר עבר שבוע, אני לא רגוע, לא יכול כשאת נסגרת 
 אני לא יודע, אני משתגע, תני לי להרגיש אחרת 
 מתפוצץ בגללך...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-מתפלל
-</t>
   </si>
   <si>
     <t>ביום גשום נוסע לי כ״כ לאט
@@ -6138,11 +5188,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/SMwg-c2Tez0?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-נגעת לי בלב
-</t>
   </si>
   <si>
     <t>אני זוכר את הרגע הראשון 
@@ -6178,11 +5223,6 @@
     <t>//www.youtube.com/embed/bzZtDkMueUA?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-נולדת בשבילי
-</t>
-  </si>
-  <si>
     <t>עכשיו נושבות רוחות של סתיו 
 כותב לך עוד מכתב
 רוצה לומר אני פשוט מתגעגע 
@@ -6208,11 +5248,6 @@
 חזרי אלי לנשמה...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-נסחפת כמו ילדה
-</t>
-  </si>
-  <si>
     <t>ערב יורד על ביתו והיא נמצאת כבר איתו 
 היא בין ידיו כל הליל, אך הוא אותה מנצל 
 היא נסחפת תמיד אחריו ונושקת בחום לשפתיו 
@@ -6230,11 +5265,6 @@
 היא נסחפת אחריו ונושקת לשפתיו, 
 לא יודעת שכל זה לשווא הבחור אינו מאוהב 
 פזמון: הו ילדה, נסחפת כמו ילדה, מאוהבת רוצה לחיות...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-נעצר העולם
-</t>
   </si>
   <si>
     <t>את שהלכת והשארת בי כאב
@@ -6263,11 +5293,6 @@
 אותך כל חיי רק אהבתי</t>
   </si>
   <si>
-    <t xml:space="preserve">
-נערה
-</t>
-  </si>
-  <si>
     <t>נערה
 כשאת עוזבת זה כואב לי
 אפילו כשנשארת היית עם מישהו אחר
@@ -6296,11 +5321,6 @@
     <t>//www.youtube.com/embed/VxhcpAK00S4?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-נשבע לך כאן
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">תמיד ידעתי יש אחת שנולדה בשבילי
 תמיד האמנתי שאמצא את שאהבה נפשי
 תמיד חשבתי איך זה להרגיש מאוהב
@@ -6319,11 +5339,6 @@
 עכשיו הבנתי את האחת בשבילי
 סוף סוף מצאתי
 את זו שבאמת תאהב אותי
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-נשיקה אחת ממך
 </t>
   </si>
   <si>
@@ -6377,11 +5392,6 @@
 נשיקה אחת ממך...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-נשמע לי טוב
-</t>
-  </si>
-  <si>
     <t>את אוהבת לשחות בים,
 אני אוהב לסחוט תפוזים
 את אוהבת לבכות סתם
@@ -6413,11 +5423,6 @@
 נשמע לי טוב</t>
   </si>
   <si>
-    <t xml:space="preserve">
-סטטוס מאוהב
-</t>
-  </si>
-  <si>
     <t>ואחרי שעזבתי את הבית
 נשארה לי מונה ליזה ישנה 
 אני שר לך עוד שירים עדיין
@@ -6466,11 +5471,6 @@
     <t>//www.youtube.com/embed/EE8SZwwxQEs?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-סעידה
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">את היית ילדה
 יפה וחייכנית
 לו ידעת כמה סבא
@@ -6488,11 +5488,6 @@
 אך לב שכואב לעולם לא שוכח
 עד מתי לה לאם תבכה ותתייפח
 סעידה, עוד אמא לך שרה...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-סרט שחור לבן
 </t>
   </si>
   <si>
@@ -6523,11 +5518,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-עוד יום שעבר
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">שוב המחשבות רודפות
 בתוך ראשך הן מטיילות
 ולא נותנות מנוח
@@ -6553,11 +5543,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/a03BSq2ivhk?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-עוד כמה רגעים
-</t>
   </si>
   <si>
     <t xml:space="preserve">אצלך זה בהיר,
@@ -6608,11 +5593,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-עולם מושלם
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">חשבתי על מגרש המשחקים שאיננו
 היום עומד שם בית מלון גדול
 הנצחונות ששמחנו והדמעות ששפכנו
@@ -6636,11 +5616,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-עופרה
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">קולך נגע בי מרטט נשמתך
 בצליל כסף כוכבים כאלפי עינבלים
 היית כנף לזמר היונה
@@ -6656,11 +5631,6 @@
 היית כנף לכל עם ישראל
 לאור הנר וליופי הבשמים
 ואם ננעלו...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-עינייך החומות
 </t>
   </si>
   <si>
@@ -6683,11 +5653,6 @@
 המחשבה כלפי ילדה קטנה
 אותה ילדה שבה תליתי תקווה
 היא גם גרמה לאכזבה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-עיניך מספרות
-</t>
   </si>
   <si>
     <t xml:space="preserve">עיניך מספרות מה עובר עליך
@@ -6716,11 +5681,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/noR_hGszlVA?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-על חבל דק
-</t>
   </si>
   <si>
     <t>חלמנו על עתיד משותף 
@@ -6748,11 +5708,6 @@
 מוזר לי מאוד שאת לא איתי 
 את אור לעיני הו יפתי 
 הזמן עובר...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-פיציריקה
-</t>
   </si>
   <si>
     <t>יוונית:
@@ -6784,11 +5739,6 @@
 אינטרה, אינטרה לה אינגליקה</t>
   </si>
   <si>
-    <t xml:space="preserve">
-פני מלאך
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">פני מלאך, פנייך מה יפות
 מה נועזת את באהבות
 מבטך שולח להבות
@@ -6818,11 +5768,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-פרחים במדבר
-</t>
-  </si>
-  <si>
     <t>לא לשכוח אף פעם להגיד אני אוהב, 
 לשלוח לך ת'יד גם כשקשה להתקרב
 להביט בך בלילה במקום ללכת לישון, 
@@ -6850,11 +5795,6 @@
 אין מי שיאהב</t>
   </si>
   <si>
-    <t xml:space="preserve">
-פרפר
-</t>
-  </si>
-  <si>
     <t>כדאי לומר את האמת
 אני אדם שחי את הרגע
 ואת ראית אותי נודד
@@ -6878,11 +5818,6 @@
 זרה, בלילה אבוד
 נשבע, מנדודיי נגמלתי
 באתי לבקש, תני לי הזדמנות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-צאי אל החלון
-</t>
   </si>
   <si>
     <t>צאי אל החלון
@@ -6919,11 +5854,6 @@
     <t>//www.youtube.com/embed/cn5fy_J9WlI?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-צליל מיתר
-</t>
-  </si>
-  <si>
     <t>עם צליל מיתר שמתנגן
 אני חושב עלייך
 מרגיש כמה שזה עצוב
@@ -6954,11 +5884,6 @@
     <t>//www.youtube.com/embed/oKLLyDOczbY?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-צעיר ורענן
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">אם פגשת נערה שולחת מבטים
 ובליבך ההרגשה שהיא מיד תסכים
 גש אליה ואמור משפט מאוד ברור
@@ -6981,11 +5906,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-קחי אותי
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">נכנע ליופייך שבוי בתוך עינייך שאומרות הכל
 רוצה את ידך אני רוצה אלייך אבל לא יכול
 וגם אם אלך אמשיך לחשוב עלייך היפה מכל
@@ -6999,11 +5919,6 @@
 ויש בי כאב קשה לי בלעדייך מנסה לצחוק
 אני מתאהב אוהב למות עלייך
 קחי אותי ותהיי שלי...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-קל כל כך
 </t>
   </si>
   <si>
@@ -7029,11 +5944,6 @@
   </si>
   <si>
     <t>//www.youtube.com/embed/Km-0g7LzTYk?autoplay=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-קנה לך חבר
-</t>
   </si>
   <si>
     <t>השנים לימדוני לסמן לי אנשים 
@@ -7063,11 +5973,6 @@
 השנים למדוני שזה ככה בחיים</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ראיתי בך אישה
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">הלב החסיר תקתוק הגוף איבד תחושה
 עכשיו אני מרגיש ראיתי בך אישה
 בגלל הנסיבות ועד אינסוף בושה
@@ -7084,11 +5989,6 @@
 העיר תמשיך חיים כי אין בה שום בושה
 עכשיו אני בטוח ראיתי בך אישה
 הלב החסיר תקתוק...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-רגע גדול
 </t>
   </si>
   <si>
@@ -7132,11 +6032,6 @@
 את, אתה העיניים שלי</t>
   </si>
   <si>
-    <t xml:space="preserve">
-רגשות
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">נכון שהייתי לא בסדר
 הייתי רגיש רק לעצמי
 חיינו איבדו כיוון וסדר
@@ -7167,11 +6062,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-רוצה רק אלייך
-</t>
-  </si>
-  <si>
     <t>כמה את יפה אני מביט עלייך
 לא יכול לחיות פה רגע בלעדייך
 מנסה להכנס אל תוך חייך
@@ -7202,11 +6092,6 @@
 את רוקדת...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-רוצה שתחזרי
-</t>
-  </si>
-  <si>
     <t>כבר בוקר, לידי את מתעוררת,
 לו ידעתי שימינו כה ספורים.
 חשבתי שלנצח את נשארת,
@@ -7224,11 +6109,6 @@
 פתאום הכל נגמר ונעלמת לי,
 מאותו הלילה לא נרדמתי.
 לא יכול עוד בלעדייך...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-רוקדת בלילות
-</t>
   </si>
   <si>
     <t>וצא לבלות להנות ולשתות
@@ -7260,11 +6140,6 @@
 היא רק איתי רוצה לרקוד</t>
   </si>
   <si>
-    <t xml:space="preserve">
-רוקדת עם השיר
-</t>
-  </si>
-  <si>
     <t>יש מסיבה טובה הערב נצא לרקוד, כולם כאן בטיילת על החוף
 ואת בדיוק עוברת כה מהממת, תגידי לי כבר ערב טוב
 נשב פה על הבר נרים כוסית, לכבוד האהבה והחיים
@@ -7280,11 +6155,6 @@
 איך את רוקדת עם השיר והלילה עוד צעיר
 רוצה אותך כאן לצידי לך אתן את כל כולי
 ותל אביב, תל אביב כולם רק לבלות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-רחוק מכאן
-</t>
   </si>
   <si>
     <t>את כוחותיי את תפילותיי 
@@ -7313,11 +6183,6 @@
 זה ששורף לי את הלב מתעתע ובי נשאר רק הכאב 
 אני נוסע רחוק מכאן ולא חשוב לי לאן, 
 איני רוצה לשוב לגעגוע</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-רחוק רחוק
-</t>
   </si>
   <si>
     <t>רחוק רחוק בראש ההר
@@ -7360,11 +6225,6 @@
 תגן עלי מסכנות.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-רציתי להגיד לך
-</t>
-  </si>
-  <si>
     <t>כשפגשתי אותך ברחוב שאלתי את עצמי
 אם זו את האחת שאני תמיד חיפשתי
 כדי שלא אהיה לבד
@@ -7384,11 +6244,6 @@
 תגידי, רציתי רק לדעת...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-רק בגלל זה
-</t>
-  </si>
-  <si>
     <t>אני יורד, ואת עולה
 אני כמעט על הקצה, את רק בהתחלה
 את רצינית, אני שובב
@@ -7406,11 +6261,6 @@
 מרוב ההפכים, אנחנו נמשכים
 וזה אולי מה שמחזיק אותנו יחד
 ורק בגלל זה אני אוהב אותך...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-רק מתגעגע
-</t>
   </si>
   <si>
     <t>זה כבר כמה חודשים אני עובר ימים קשים 
@@ -7444,11 +6294,6 @@
 כבר לא חושש ומהסס...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-שבת של כדורגל
-</t>
-  </si>
-  <si>
     <t>שבת של כדורגל - עכשיו מתחילה
 בין עבודה לעבודה אין לי זמן מיותר 
 כמה טוב שיש שבת 
@@ -7472,11 +6317,6 @@
 שבת של כדורגל - עכשיו מתחילה</t>
   </si>
   <si>
-    <t xml:space="preserve">
-שובי ילדונת
-</t>
-  </si>
-  <si>
     <t>אני עומד לי מול הים
 ממרחקים חולם עלייך
 והירח הלבן, ממנו משתקפות פנייך
@@ -7503,11 +6343,6 @@
     <t>//www.youtube.com/embed/nRb-_WCPGts?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-שומרני אל
-</t>
-  </si>
-  <si>
     <t>שומרני אל מכל מרע
 אב הרחמן בורא עולם,
 הרי הכל אתה יודע
@@ -7525,11 +6360,6 @@
 רחם עלי, נקה ממני
 את הרהורי התאווה
 שומרני אל מיצר רע...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-שושנת ספרד
-</t>
   </si>
   <si>
     <t xml:space="preserve">את עיניה איפרה בשחור
@@ -7591,11 +6421,6 @@
 וזה בדיוק מה שאת אוהבת</t>
   </si>
   <si>
-    <t xml:space="preserve">
-שמועות
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">כולם יודעים עלי הכל
 יודעים עלי גם מבלי לשאול
 מה באמת עושה אותי מאושר
@@ -7617,11 +6442,6 @@
 אני שומע וממשיך לחייך
 כי אני כאן לצידך
 העיקר שאני כאן איתך...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-שער החיים
 </t>
   </si>
   <si>
@@ -7663,11 +6483,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-שעת פרידה
-</t>
-  </si>
-  <si>
     <t>עמדה היא מולי כמו זרה
 בזרועותי היתה רק אתמול
 ואני מתוך מבטה
@@ -7689,11 +6504,6 @@
 איך פעם את היית כל עולמי
 ועכשיו אותו את אוהבת
 פעם את היית שלי...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-שקלים
-</t>
   </si>
   <si>
     <t xml:space="preserve">אם המצב קשה ורע לך ואין ממה לחיות
@@ -7722,11 +6532,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-שקרים
-</t>
-  </si>
-  <si>
     <t>לפעמים אני הולך סתם לים ומחפש
 את הסתיו איתך את הלב שלך 
 מה הוא מבקש
@@ -7747,11 +6552,6 @@
 הכל כאן מכוסה באכזבה 
 שקרים זה לא אני בחוף הולך לבד
 פתאום עולה הכל ואז נשבר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-שר ברוח
-</t>
   </si>
   <si>
     <t xml:space="preserve">חולפים בשניים על פני הדרכים
@@ -7779,11 +6579,6 @@
 קולי בוקע מעמקי הלב
 ושר לך שר לך את שירך
 אני שר ברוח...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-תבואי היום
 </t>
   </si>
   <si>
@@ -7825,11 +6620,6 @@
 שוב לא אתן לך ללכת</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תגידי
-</t>
-  </si>
-  <si>
     <t>תגידי שאת מתכוונת.
 השתיקה שלך רועמת.
 איזה יום עצוב.
@@ -7865,11 +6655,6 @@
     <t>//www.youtube.com/embed/4gc5bfZqBIk?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תודה לאל
-</t>
-  </si>
-  <si>
     <t>תודה לאל שאין בי נקמה
 תודה לאל שרוע לא שוכן בי
 תודה שלא הילכו עלי אימה
@@ -7901,11 +6686,6 @@
     <t>//www.youtube.com/embed/ImwEHOw8q3Y?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תזרוק לים
-</t>
-  </si>
-  <si>
     <t>ברגע אחד, בין מיליון אנשים
 שנינו יוצאים לקרוע כבישים
 אני ואני – בלי אף אחד
@@ -7934,11 +6714,6 @@
 תזרוק ותתפרק</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תחזיר לי אותה
-</t>
-  </si>
-  <si>
     <t>ישבתי לכתוב לך מכתב בואי אליי אל סף דלתי
 בחוץ עוד נושק לו הסתיו ואת כבר מזמן לא איתי 
 אני לעולם לא חלמתי שבסוף על הכל נצטער 
@@ -7964,11 +6739,6 @@
 לפני שהגשם יישטוף אותה מחיי</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תחזרי כבר הביתה
-</t>
-  </si>
-  <si>
     <t>בימים כבר מרגיש מיותם
 בלילות לא נרדם את חסרה
 הכאב בליבי לא עוזב
@@ -7986,11 +6756,6 @@
 איך אז היינו הכל רק עושים
 עכשיו לא ביחד כבר לא אוהבים
 תחזרי כבר הביתה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-תחזרי
-</t>
   </si>
   <si>
     <t>תחזרי תחזרי בבקשה ממך
@@ -8021,11 +6786,6 @@
 הכל היה יכול להיות...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תחייך
-</t>
-  </si>
-  <si>
     <t>כשיש אושר על הבוקר זה אולי סימן
 שלכל כאב וסבל יש מרפא בזמן
 לפעמים אנחנו מתגרים קצת בַמזל
@@ -8044,11 +6804,6 @@
 שא תקווה, לטובה, ככה אלוהים אוהב</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תישארי
-</t>
-  </si>
-  <si>
     <t>מתי תוכלי לקבל אהבה 
 את עדיין לא מחליטה 
 ליבך חצוי בין היגיון להרגשה 
@@ -8067,11 +6822,6 @@
 תישארי, תישארי בבקשה...</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תלתלים שחורים
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">תלתלים שחורים, נופלים על הכתפיים
 כמו שתי פנינות, יפות הן העיניים
 גומות קטנות, ואף חטוב
@@ -8087,11 +6837,6 @@
 היא אהבה כמו בספרים, כמו בסרטים הישנים
 אני סופר את השנים, אח מאמא מיה
 תלתלים שחורים...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-תמונה שבורה
 </t>
   </si>
   <si>
@@ -8115,11 +6860,6 @@
 את לא יודעת להניח לדברים
 בבוא הזמן לתת להם מרחב לחיות
 בסוף היום אני מביט...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-תני לי לאהוב אותך
-</t>
   </si>
   <si>
     <t>מחפש, מתלבט רוצה לומר לך 
@@ -8153,11 +6893,6 @@
 ללכת כעיוור בדרכך</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תפוחים ותמרים
-</t>
-  </si>
-  <si>
     <t>אם תלך אל השוק
 תראה אותה בוכה
 אישה יפה בין הפירות
@@ -8189,11 +6924,6 @@
     <t>//www.youtube.com/embed/Qoix1unGz9I?autoplay=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-תרקדי
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">אני מרגיש שאני ים 
 כשאת באה אלי
 זורקת מילים פוחדת אולי
@@ -8220,6 +6950,771 @@
 גשם שוטף אני רוצה נורא
 שתרקדי תרקדי תרקדי...
 </t>
+  </si>
+  <si>
+    <t>Always My #1</t>
+  </si>
+  <si>
+    <t>goda boba</t>
+  </si>
+  <si>
+    <t>אהבה אחרת</t>
+  </si>
+  <si>
+    <t>אהבה ראשונה</t>
+  </si>
+  <si>
+    <t>אהבת חיי</t>
+  </si>
+  <si>
+    <t>אהבת ילדות</t>
+  </si>
+  <si>
+    <t>אהובה שלי</t>
+  </si>
+  <si>
+    <t>אהיה בכל מקום</t>
+  </si>
+  <si>
+    <t>אוהב אותך לנצח</t>
+  </si>
+  <si>
+    <t>אושר אמיתי</t>
+  </si>
+  <si>
+    <t>אותך אשא</t>
+  </si>
+  <si>
+    <t>אח יקר</t>
+  </si>
+  <si>
+    <t>אייל גולן -עוד שבת של כדורגל</t>
+  </si>
+  <si>
+    <t>אייל גולן קורא לך</t>
+  </si>
+  <si>
+    <t>איך</t>
+  </si>
+  <si>
+    <t>איך הוא אוהב</t>
+  </si>
+  <si>
+    <t>אין לי בלעדייך</t>
+  </si>
+  <si>
+    <t>איפה את</t>
+  </si>
+  <si>
+    <t>אישה וגם ילדה</t>
+  </si>
+  <si>
+    <t>אישה שלי</t>
+  </si>
+  <si>
+    <t>אל תגידי לי לא</t>
+  </si>
+  <si>
+    <t>אל תטעי בדרך</t>
+  </si>
+  <si>
+    <t>אל תלכי</t>
+  </si>
+  <si>
+    <t>אל תלכי לי</t>
+  </si>
+  <si>
+    <t>אלוהי מדוע בעולם</t>
+  </si>
+  <si>
+    <t>אלוהי</t>
+  </si>
+  <si>
+    <t>אלין</t>
+  </si>
+  <si>
+    <t>אלינור</t>
+  </si>
+  <si>
+    <t>אם יש גן עדן</t>
+  </si>
+  <si>
+    <t>אמא</t>
+  </si>
+  <si>
+    <t>הפוך מהיקום</t>
+  </si>
+  <si>
+    <t>חונקת מאהבה</t>
+  </si>
+  <si>
+    <t>יש לי רק אותך</t>
+  </si>
+  <si>
+    <t>טוב לך איתו</t>
+  </si>
+  <si>
+    <t>שישי בצהריים</t>
+  </si>
+  <si>
+    <t>כשתגדל</t>
+  </si>
+  <si>
+    <t>שוב לאהוב</t>
+  </si>
+  <si>
+    <t>גבר של אישה אחת</t>
+  </si>
+  <si>
+    <t>שמור עליו</t>
+  </si>
+  <si>
+    <t>אתן לך</t>
+  </si>
+  <si>
+    <t>ואולי ביום יפה</t>
+  </si>
+  <si>
+    <t>ימים יגידו</t>
+  </si>
+  <si>
+    <t>הלילה תרקדי</t>
+  </si>
+  <si>
+    <t>צללים של דמותה</t>
+  </si>
+  <si>
+    <t>אמרי לי</t>
+  </si>
+  <si>
+    <t>אסתדר לבד</t>
+  </si>
+  <si>
+    <t>את</t>
+  </si>
+  <si>
+    <t>את היפה בנשים</t>
+  </si>
+  <si>
+    <t>את לי לילה</t>
+  </si>
+  <si>
+    <t>את שלי אני שלך</t>
+  </si>
+  <si>
+    <t>אתה המלך דואט עם אייל גולן</t>
+  </si>
+  <si>
+    <t>באתי אלייך</t>
+  </si>
+  <si>
+    <t>בגדים ומתנות</t>
+  </si>
+  <si>
+    <t>בגופיה צמודה</t>
+  </si>
+  <si>
+    <t>בואי נברח</t>
+  </si>
+  <si>
+    <t>בובים בובות</t>
+  </si>
+  <si>
+    <t>בוחר מחדש</t>
+  </si>
+  <si>
+    <t>בחוף של פורטוגל</t>
+  </si>
+  <si>
+    <t>בין הטוב והרע</t>
+  </si>
+  <si>
+    <t>בלי להתכוון</t>
+  </si>
+  <si>
+    <t>בלילותי</t>
+  </si>
+  <si>
+    <t>בלעדייך</t>
+  </si>
+  <si>
+    <t>בסוף כל יום</t>
+  </si>
+  <si>
+    <t>בעירי</t>
+  </si>
+  <si>
+    <t>ברצלונה</t>
+  </si>
+  <si>
+    <t>בשבילך</t>
+  </si>
+  <si>
+    <t>בשבילך נוצרתי</t>
+  </si>
+  <si>
+    <t>בתוך הקסם</t>
+  </si>
+  <si>
+    <t>ג'ונגל</t>
+  </si>
+  <si>
+    <t>גשם במאי</t>
+  </si>
+  <si>
+    <t>דברי איתי</t>
+  </si>
+  <si>
+    <t>דוהר לתוך הפקק</t>
+  </si>
+  <si>
+    <t>דז'ה וו</t>
+  </si>
+  <si>
+    <t>דמעות</t>
+  </si>
+  <si>
+    <t>דרך לחיים</t>
+  </si>
+  <si>
+    <t>האהבה הישנה</t>
+  </si>
+  <si>
+    <t>האהבה הישנה שלי</t>
+  </si>
+  <si>
+    <t>האור שבעיניים</t>
+  </si>
+  <si>
+    <t>האם להיות בך מאוהב</t>
+  </si>
+  <si>
+    <t>הדרך ארוכה</t>
+  </si>
+  <si>
+    <t>הוזה אותך מולי</t>
+  </si>
+  <si>
+    <t>הופה פה</t>
+  </si>
+  <si>
+    <t>החיים אחרייך</t>
+  </si>
+  <si>
+    <t>החלום שלי</t>
+  </si>
+  <si>
+    <t>הכי טובה בעולם</t>
+  </si>
+  <si>
+    <t>הלב שלי</t>
+  </si>
+  <si>
+    <t>הלילה השחור</t>
+  </si>
+  <si>
+    <t>הלילה שלך</t>
+  </si>
+  <si>
+    <t>הללויה</t>
+  </si>
+  <si>
+    <t>המציאות שלך</t>
+  </si>
+  <si>
+    <t>הסתכלי אלי</t>
+  </si>
+  <si>
+    <t>הפרח בגני</t>
+  </si>
+  <si>
+    <t>הריקוד הוא שלך</t>
+  </si>
+  <si>
+    <t>השיר האחרון</t>
+  </si>
+  <si>
+    <t>השמיים הם הגבול</t>
+  </si>
+  <si>
+    <t>ואיך בשמיים</t>
+  </si>
+  <si>
+    <t>ואני קורא לך</t>
+  </si>
+  <si>
+    <t>זה אני</t>
+  </si>
+  <si>
+    <t>זה לא חלום</t>
+  </si>
+  <si>
+    <t>זה מוזר</t>
+  </si>
+  <si>
+    <t>זה מסוכן</t>
+  </si>
+  <si>
+    <t>זר כיסופים</t>
+  </si>
+  <si>
+    <t>זרה</t>
+  </si>
+  <si>
+    <t>חוף אל חוף</t>
+  </si>
+  <si>
+    <t>חזק יותר</t>
+  </si>
+  <si>
+    <t>חזרי אלי</t>
+  </si>
+  <si>
+    <t>חייל של אהבה</t>
+  </si>
+  <si>
+    <t>חיים שלמים</t>
+  </si>
+  <si>
+    <t>חלומות</t>
+  </si>
+  <si>
+    <t>חלק מחיי</t>
+  </si>
+  <si>
+    <t>טוב בלב</t>
+  </si>
+  <si>
+    <t>ידעת שזה זמני</t>
+  </si>
+  <si>
+    <t>ילדתי נא שובי</t>
+  </si>
+  <si>
+    <t>ילדתי שלי</t>
+  </si>
+  <si>
+    <t>ים פרחים</t>
+  </si>
+  <si>
+    <t>ים של טעויות</t>
+  </si>
+  <si>
+    <t>יפה לך להיות מאושרת</t>
+  </si>
+  <si>
+    <t>יפה שלי</t>
+  </si>
+  <si>
+    <t>יפיופה</t>
+  </si>
+  <si>
+    <t>ירח נעלם</t>
+  </si>
+  <si>
+    <t>כבר לא יכול</t>
+  </si>
+  <si>
+    <t>כדי שאלך</t>
+  </si>
+  <si>
+    <t>כואב ושר</t>
+  </si>
+  <si>
+    <t>כל החלומות</t>
+  </si>
+  <si>
+    <t>כל כך יפה</t>
+  </si>
+  <si>
+    <t>כמה ימים</t>
+  </si>
+  <si>
+    <t>כמו צועני</t>
+  </si>
+  <si>
+    <t>כמו רוח סערה</t>
+  </si>
+  <si>
+    <t>כמו שיכור</t>
+  </si>
+  <si>
+    <t>כנף הרוח</t>
+  </si>
+  <si>
+    <t>כשאחר</t>
+  </si>
+  <si>
+    <t>כשאת איתו</t>
+  </si>
+  <si>
+    <t>כשאת צוחקת</t>
+  </si>
+  <si>
+    <t>לא מבינה עברית</t>
+  </si>
+  <si>
+    <t>לא פשוט להיות פשוט</t>
+  </si>
+  <si>
+    <t>לאהוב אותך</t>
+  </si>
+  <si>
+    <t>לאן את הולכת</t>
+  </si>
+  <si>
+    <t>לאן הגענו</t>
+  </si>
+  <si>
+    <t>לב חולה</t>
+  </si>
+  <si>
+    <t>לב שבור</t>
+  </si>
+  <si>
+    <t>לב של גבר</t>
+  </si>
+  <si>
+    <t>לבד לבד</t>
+  </si>
+  <si>
+    <t>לבדי</t>
+  </si>
+  <si>
+    <t>לו הייתי</t>
+  </si>
+  <si>
+    <t>לו הייתי יכול</t>
+  </si>
+  <si>
+    <t>לוחמת</t>
+  </si>
+  <si>
+    <t>לחזור בזמן</t>
+  </si>
+  <si>
+    <t>לחישה בלילה</t>
+  </si>
+  <si>
+    <t>לטרוף את כל העולם</t>
+  </si>
+  <si>
+    <t>ליאם</t>
+  </si>
+  <si>
+    <t>לילד הזה התפללתי</t>
+  </si>
+  <si>
+    <t>ללכת או להישאר</t>
+  </si>
+  <si>
+    <t>למה נשמה</t>
+  </si>
+  <si>
+    <t>למות מקנאה</t>
+  </si>
+  <si>
+    <t>לנצח בני</t>
+  </si>
+  <si>
+    <t>לקנות לך יהלום</t>
+  </si>
+  <si>
+    <t>לשיר וכדורגל</t>
+  </si>
+  <si>
+    <t>לשכת עבודה</t>
+  </si>
+  <si>
+    <t>מאוהב כל הלילה</t>
+  </si>
+  <si>
+    <t>מאושרת</t>
+  </si>
+  <si>
+    <t>מאמי</t>
+  </si>
+  <si>
+    <t>מבעד לדמעה</t>
+  </si>
+  <si>
+    <t>מבקשים חיים</t>
+  </si>
+  <si>
+    <t>מגרש השדים</t>
+  </si>
+  <si>
+    <t>מדמיין אותך</t>
+  </si>
+  <si>
+    <t>מותק של אישה</t>
+  </si>
+  <si>
+    <t>מזמור לגלעד</t>
+  </si>
+  <si>
+    <t>מחכה לך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטורף </t>
+  </si>
+  <si>
+    <t>מי ידע שכך יהיה</t>
+  </si>
+  <si>
+    <t>מי שמאמין</t>
+  </si>
+  <si>
+    <t>מילה טובה</t>
+  </si>
+  <si>
+    <t>מיליון או דולר</t>
+  </si>
+  <si>
+    <t>מכל אותם הפזמונים</t>
+  </si>
+  <si>
+    <t>מלאך</t>
+  </si>
+  <si>
+    <t>מלאך שומר</t>
+  </si>
+  <si>
+    <t>מלאת אהבה</t>
+  </si>
+  <si>
+    <t>מלך המגרש</t>
+  </si>
+  <si>
+    <t>מלך העולם</t>
+  </si>
+  <si>
+    <t>מלכי המלכים</t>
+  </si>
+  <si>
+    <t>מלכת היופי שלי</t>
+  </si>
+  <si>
+    <t>ממריא</t>
+  </si>
+  <si>
+    <t>מנגינה</t>
+  </si>
+  <si>
+    <t>מנגינת הלב</t>
+  </si>
+  <si>
+    <t>מפה לשם</t>
+  </si>
+  <si>
+    <t>מצטער</t>
+  </si>
+  <si>
+    <t>מציאות אחרת</t>
+  </si>
+  <si>
+    <t>משחקים של כבוד</t>
+  </si>
+  <si>
+    <t>מתגעגע</t>
+  </si>
+  <si>
+    <t>מתפוצץ בגללך</t>
+  </si>
+  <si>
+    <t>מתפלל</t>
+  </si>
+  <si>
+    <t>נגעת לי בלב</t>
+  </si>
+  <si>
+    <t>נולדת בשבילי</t>
+  </si>
+  <si>
+    <t>נסחפת כמו ילדה</t>
+  </si>
+  <si>
+    <t>נעצר העולם</t>
+  </si>
+  <si>
+    <t>נערה</t>
+  </si>
+  <si>
+    <t>נשבע לך כאן</t>
+  </si>
+  <si>
+    <t>נשיקה אחת ממך</t>
+  </si>
+  <si>
+    <t>נשמע לי טוב</t>
+  </si>
+  <si>
+    <t>סטטוס מאוהב</t>
+  </si>
+  <si>
+    <t>סעידה</t>
+  </si>
+  <si>
+    <t>סרט שחור לבן</t>
+  </si>
+  <si>
+    <t>עוד יום שעבר</t>
+  </si>
+  <si>
+    <t>עוד כמה רגעים</t>
+  </si>
+  <si>
+    <t>עולם מושלם</t>
+  </si>
+  <si>
+    <t>עופרה</t>
+  </si>
+  <si>
+    <t>עינייך החומות</t>
+  </si>
+  <si>
+    <t>עיניך מספרות</t>
+  </si>
+  <si>
+    <t>על חבל דק</t>
+  </si>
+  <si>
+    <t>פיציריקה</t>
+  </si>
+  <si>
+    <t>פני מלאך</t>
+  </si>
+  <si>
+    <t>פרחים במדבר</t>
+  </si>
+  <si>
+    <t>פרפר</t>
+  </si>
+  <si>
+    <t>צאי אל החלון</t>
+  </si>
+  <si>
+    <t>צליל מיתר</t>
+  </si>
+  <si>
+    <t>צעיר ורענן</t>
+  </si>
+  <si>
+    <t>קחי אותי</t>
+  </si>
+  <si>
+    <t>קל כל כך</t>
+  </si>
+  <si>
+    <t>קנה לך חבר</t>
+  </si>
+  <si>
+    <t>ראיתי בך אישה</t>
+  </si>
+  <si>
+    <t>רגע גדול</t>
+  </si>
+  <si>
+    <t>רגשות</t>
+  </si>
+  <si>
+    <t>רוצה רק אלייך</t>
+  </si>
+  <si>
+    <t>רוצה שתחזרי</t>
+  </si>
+  <si>
+    <t>רוקדת בלילות</t>
+  </si>
+  <si>
+    <t>רוקדת עם השיר</t>
+  </si>
+  <si>
+    <t>רחוק מכאן</t>
+  </si>
+  <si>
+    <t>רחוק רחוק</t>
+  </si>
+  <si>
+    <t>רציתי להגיד לך</t>
+  </si>
+  <si>
+    <t>רק בגלל זה</t>
+  </si>
+  <si>
+    <t>רק מתגעגע</t>
+  </si>
+  <si>
+    <t>שבת של כדורגל</t>
+  </si>
+  <si>
+    <t>שובי ילדונת</t>
+  </si>
+  <si>
+    <t>שומרני אל</t>
+  </si>
+  <si>
+    <t>שושנת ספרד</t>
+  </si>
+  <si>
+    <t>שמועות</t>
+  </si>
+  <si>
+    <t>שער החיים</t>
+  </si>
+  <si>
+    <t>שעת פרידה</t>
+  </si>
+  <si>
+    <t>שקלים</t>
+  </si>
+  <si>
+    <t>שקרים</t>
+  </si>
+  <si>
+    <t>שר ברוח</t>
+  </si>
+  <si>
+    <t>תבואי היום</t>
+  </si>
+  <si>
+    <t>תגידי</t>
+  </si>
+  <si>
+    <t>תודה לאל</t>
+  </si>
+  <si>
+    <t>תזרוק לים</t>
+  </si>
+  <si>
+    <t>תחזיר לי אותה</t>
+  </si>
+  <si>
+    <t>תחזרי כבר הביתה</t>
+  </si>
+  <si>
+    <t>תחזרי</t>
+  </si>
+  <si>
+    <t>תחייך</t>
+  </si>
+  <si>
+    <t>תישארי</t>
+  </si>
+  <si>
+    <t>תלתלים שחורים</t>
+  </si>
+  <si>
+    <t>תמונה שבורה</t>
+  </si>
+  <si>
+    <t>תני לי לאהוב אותך</t>
+  </si>
+  <si>
+    <t>תפוחים ותמרים</t>
+  </si>
+  <si>
+    <t>תרקדי</t>
   </si>
 </sst>
 </file>
@@ -8290,7 +7785,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" headers="0" connectionId="1" xr16:uid="{0944C53B-B52E-4AD2-BB44-987AB6C27D17}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="5">
+  <queryTableRefresh headersInLastRefresh="0" nextId="7">
     <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -8578,7 +8073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46722649-7EA6-447C-A397-E01DCBD62CEC}">
   <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8603,3698 +8100,3698 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>354</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>357</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>369</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>370</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>371</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>372</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>374</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>375</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>376</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>378</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>381</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>389</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>394</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>395</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>397</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>401</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>131</v>
+        <v>402</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>403</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>404</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>139</v>
+        <v>406</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>407</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>408</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>146</v>
+        <v>409</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>410</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>411</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>412</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>158</v>
+        <v>414</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>415</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>418</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>175</v>
+        <v>421</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>177</v>
+        <v>422</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>424</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>183</v>
+        <v>425</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>426</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>193</v>
+        <v>429</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>197</v>
+        <v>431</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>199</v>
+        <v>432</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>202</v>
+        <v>433</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>205</v>
+        <v>434</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>207</v>
+        <v>435</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>209</v>
+        <v>436</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>216</v>
+        <v>439</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>218</v>
+        <v>440</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>220</v>
+        <v>441</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>234</v>
+        <v>446</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>237</v>
+        <v>447</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>245</v>
+        <v>450</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>248</v>
+        <v>451</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>250</v>
+        <v>452</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>252</v>
+        <v>453</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>254</v>
+        <v>454</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>256</v>
+        <v>455</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>456</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>261</v>
+        <v>457</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>263</v>
+        <v>458</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>265</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>263</v>
+        <v>458</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>267</v>
+        <v>459</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>273</v>
+        <v>461</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>275</v>
+        <v>462</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>280</v>
+        <v>464</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>282</v>
+        <v>465</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>285</v>
+        <v>466</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>287</v>
+        <v>467</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>289</v>
+        <v>468</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>292</v>
+        <v>469</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>294</v>
+        <v>470</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>296</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>297</v>
+        <v>471</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>300</v>
+        <v>472</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>304</v>
+        <v>474</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>306</v>
+        <v>475</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>308</v>
+        <v>476</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>309</v>
+        <v>185</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>311</v>
+        <v>477</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>311</v>
+        <v>477</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>315</v>
+        <v>478</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>317</v>
+        <v>479</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>318</v>
+        <v>191</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>319</v>
+        <v>480</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>321</v>
+        <v>481</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>322</v>
+        <v>193</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>323</v>
+        <v>482</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>326</v>
+        <v>195</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>327</v>
+        <v>484</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>332</v>
+        <v>486</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>334</v>
+        <v>487</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>336</v>
+        <v>488</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>338</v>
+        <v>489</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>339</v>
+        <v>202</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>340</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>342</v>
+        <v>204</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>344</v>
+        <v>491</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>345</v>
+        <v>206</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>346</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>348</v>
+        <v>208</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>349</v>
+        <v>493</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>354</v>
+        <v>495</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>356</v>
+        <v>496</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>357</v>
+        <v>213</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>358</v>
+        <v>497</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>359</v>
+        <v>214</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>360</v>
+        <v>498</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>363</v>
+        <v>499</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>364</v>
+        <v>217</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>365</v>
+        <v>500</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>367</v>
+        <v>501</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>369</v>
+        <v>502</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>371</v>
+        <v>503</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>372</v>
+        <v>221</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>375</v>
+        <v>505</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>377</v>
+        <v>506</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>380</v>
+        <v>225</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>381</v>
+        <v>508</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>382</v>
+        <v>226</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>383</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>384</v>
+        <v>509</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>385</v>
+        <v>228</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>391</v>
+        <v>231</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>393</v>
+        <v>232</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>394</v>
+        <v>514</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>395</v>
+        <v>233</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>394</v>
+        <v>514</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>395</v>
+        <v>233</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>396</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>397</v>
+        <v>515</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>399</v>
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>401</v>
+        <v>237</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>402</v>
+        <v>517</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>403</v>
+        <v>238</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>404</v>
+        <v>518</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>405</v>
+        <v>239</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>406</v>
+        <v>519</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>408</v>
+        <v>520</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>410</v>
+        <v>521</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>411</v>
+        <v>242</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>412</v>
+        <v>522</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>413</v>
+        <v>243</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>414</v>
+        <v>244</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>415</v>
+        <v>523</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>416</v>
+        <v>245</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>418</v>
+        <v>246</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>420</v>
+        <v>247</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>421</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>422</v>
+        <v>526</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>423</v>
+        <v>249</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>424</v>
+        <v>527</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>426</v>
+        <v>528</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>427</v>
+        <v>251</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>428</v>
+        <v>529</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>429</v>
+        <v>252</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>430</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>431</v>
+        <v>530</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>432</v>
+        <v>254</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>433</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>434</v>
+        <v>531</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>435</v>
+        <v>256</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>436</v>
+        <v>532</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>438</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>439</v>
+        <v>533</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>440</v>
+        <v>259</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>441</v>
+        <v>260</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>445</v>
+        <v>262</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>447</v>
+        <v>263</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>448</v>
+        <v>537</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>449</v>
+        <v>264</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>451</v>
+        <v>265</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>452</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>454</v>
+        <v>267</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>455</v>
+        <v>540</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>456</v>
+        <v>268</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>458</v>
+        <v>269</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>462</v>
+        <v>271</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>464</v>
+        <v>273</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>465</v>
+        <v>544</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>466</v>
+        <v>274</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>467</v>
+        <v>275</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>468</v>
+        <v>545</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>469</v>
+        <v>276</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>471</v>
+        <v>277</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>472</v>
+        <v>547</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>473</v>
+        <v>278</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>475</v>
+        <v>279</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>476</v>
+        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>478</v>
+        <v>281</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>480</v>
+        <v>282</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>482</v>
+        <v>283</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>484</v>
+        <v>284</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>486</v>
+        <v>286</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>488</v>
+        <v>287</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>490</v>
+        <v>288</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>492</v>
+        <v>289</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>493</v>
+        <v>290</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>495</v>
+        <v>291</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>497</v>
+        <v>292</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>499</v>
+        <v>293</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>501</v>
+        <v>294</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>503</v>
+        <v>295</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>504</v>
+        <v>296</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>506</v>
+        <v>297</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>508</v>
+        <v>298</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>510</v>
+        <v>299</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>514</v>
+        <v>301</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>516</v>
+        <v>302</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>517</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>519</v>
+        <v>304</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>520</v>
+        <v>305</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>521</v>
+        <v>568</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>522</v>
+        <v>306</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>524</v>
+        <v>307</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>526</v>
+        <v>308</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>527</v>
+        <v>309</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>529</v>
+        <v>310</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>531</v>
+        <v>311</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>533</v>
+        <v>312</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>535</v>
+        <v>313</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>537</v>
+        <v>314</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>539</v>
+        <v>315</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>541</v>
+        <v>316</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>543</v>
+        <v>317</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>545</v>
+        <v>318</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>547</v>
+        <v>319</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>549</v>
+        <v>320</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>551</v>
+        <v>321</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>553</v>
+        <v>322</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>555</v>
+        <v>323</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>557</v>
+        <v>324</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>558</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>562</v>
+        <v>327</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>563</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>564</v>
+        <v>329</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>566</v>
+        <v>330</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>568</v>
+        <v>331</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>570</v>
+        <v>332</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>572</v>
+        <v>333</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>574</v>
+        <v>334</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>576</v>
+        <v>335</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>578</v>
+        <v>336</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>580</v>
+        <v>337</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>581</v>
+        <v>338</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>584</v>
+        <v>340</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>586</v>
+        <v>341</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>588</v>
+        <v>342</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>590</v>
+        <v>343</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>592</v>
+        <v>344</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>594</v>
+        <v>345</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>596</v>
+        <v>346</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>598</v>
+        <v>347</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>600</v>
+        <v>348</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>602</v>
+        <v>349</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>604</v>
+        <v>350</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>605</v>
+        <v>351</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>607</v>
+        <v>352</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
